--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>1.502166484744444</v>
+        <v>7.451562333133888</v>
       </c>
       <c r="R2">
-        <v>13.5194983627</v>
+        <v>67.06406099820499</v>
       </c>
       <c r="S2">
-        <v>0.0002537200953694697</v>
+        <v>0.0008088872281994122</v>
       </c>
       <c r="T2">
-        <v>0.0002537200953694697</v>
+        <v>0.0008088872281994121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
-        <v>137.3417755402533</v>
+        <v>228.3066275031833</v>
       </c>
       <c r="R3">
-        <v>1236.07597986228</v>
+        <v>2054.75964752865</v>
       </c>
       <c r="S3">
-        <v>0.02319740770558704</v>
+        <v>0.02478330138626614</v>
       </c>
       <c r="T3">
-        <v>0.02319740770558704</v>
+        <v>0.02478330138626614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>6.144883062930222</v>
+        <v>1.161929823875556</v>
       </c>
       <c r="R4">
-        <v>55.303947566372</v>
+        <v>10.45736841488</v>
       </c>
       <c r="S4">
-        <v>0.001037887832403699</v>
+        <v>0.0001261306223552249</v>
       </c>
       <c r="T4">
-        <v>0.001037887832403699</v>
+        <v>0.0001261306223552249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I5">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J5">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>40.2011250781861</v>
+        <v>119.9641875098899</v>
       </c>
       <c r="R5">
-        <v>361.810125703675</v>
+        <v>1079.677687589009</v>
       </c>
       <c r="S5">
-        <v>0.006790081786795158</v>
+        <v>0.01302243674277344</v>
       </c>
       <c r="T5">
-        <v>0.006790081786795158</v>
+        <v>0.01302243674277344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I6">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J6">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
         <v>3675.553910319863</v>
@@ -827,10 +827,10 @@
         <v>33079.98519287877</v>
       </c>
       <c r="S6">
-        <v>0.620811273672262</v>
+        <v>0.3989913097010557</v>
       </c>
       <c r="T6">
-        <v>0.620811273672262</v>
+        <v>0.3989913097010558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1590.898651</v>
       </c>
       <c r="I7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J7">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>164.4499561882525</v>
+        <v>18.70613987149155</v>
       </c>
       <c r="R7">
-        <v>1480.049605694273</v>
+        <v>168.355258843424</v>
       </c>
       <c r="S7">
-        <v>0.02777605477909919</v>
+        <v>0.002030602034110293</v>
       </c>
       <c r="T7">
-        <v>0.02777605477909919</v>
+        <v>0.002030602034110293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H8">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I8">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J8">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N8">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q8">
-        <v>8.653912774772222</v>
+        <v>95.50559901959454</v>
       </c>
       <c r="R8">
-        <v>77.88521497295001</v>
+        <v>859.5503911763509</v>
       </c>
       <c r="S8">
-        <v>0.001461669925958851</v>
+        <v>0.01036739086580171</v>
       </c>
       <c r="T8">
-        <v>0.001461669925958852</v>
+        <v>0.01036739086580171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H9">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I9">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J9">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q9">
-        <v>791.2197202694867</v>
+        <v>2926.173095658003</v>
       </c>
       <c r="R9">
-        <v>7120.977482425381</v>
+        <v>26335.55786092203</v>
       </c>
       <c r="S9">
-        <v>0.13363921038295</v>
+        <v>0.3176439971593226</v>
       </c>
       <c r="T9">
-        <v>0.13363921038295</v>
+        <v>0.3176439971593225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H10">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I10">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J10">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N10">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q10">
-        <v>35.40039175272911</v>
+        <v>14.89228686372622</v>
       </c>
       <c r="R10">
-        <v>318.6035257745621</v>
+        <v>134.030581773536</v>
       </c>
       <c r="S10">
-        <v>0.005979224581852552</v>
+        <v>0.0016165979836451</v>
       </c>
       <c r="T10">
-        <v>0.005979224581852552</v>
+        <v>0.0016165979836451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H11">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I11">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J11">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N11">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q11">
-        <v>4.27033693735</v>
+        <v>3.734720198991999</v>
       </c>
       <c r="R11">
-        <v>38.43303243615</v>
+        <v>33.61248179092799</v>
       </c>
       <c r="S11">
-        <v>0.0007212717804634922</v>
+        <v>0.0004054139702260899</v>
       </c>
       <c r="T11">
-        <v>0.0007212717804634926</v>
+        <v>0.0004054139702260899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H12">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I12">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J12">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q12">
-        <v>390.43319304954</v>
+        <v>114.42719461776</v>
       </c>
       <c r="R12">
-        <v>3513.89873744586</v>
+        <v>1029.84475155984</v>
       </c>
       <c r="S12">
-        <v>0.06594525172939704</v>
+        <v>0.01242138120128525</v>
       </c>
       <c r="T12">
-        <v>0.06594525172939705</v>
+        <v>0.01242138120128526</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H13">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I13">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J13">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N13">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q13">
-        <v>17.468583799346</v>
+        <v>0.582358784512</v>
       </c>
       <c r="R13">
-        <v>157.217254194114</v>
+        <v>5.241229060608</v>
       </c>
       <c r="S13">
-        <v>0.002950492367224965</v>
+        <v>6.321661981231479E-05</v>
       </c>
       <c r="T13">
-        <v>0.002950492367224966</v>
+        <v>6.321661981231481E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H14">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I14">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J14">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N14">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q14">
-        <v>3.503908344719444</v>
+        <v>10.09413455018611</v>
       </c>
       <c r="R14">
-        <v>31.535175102475</v>
+        <v>90.84721095167498</v>
       </c>
       <c r="S14">
-        <v>0.0005918198604593024</v>
+        <v>0.001095745583589317</v>
       </c>
       <c r="T14">
-        <v>0.0005918198604593025</v>
+        <v>0.001095745583589317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H15">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I15">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J15">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.79327</v>
       </c>
       <c r="O15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q15">
-        <v>320.3592932483433</v>
+        <v>309.2717625764166</v>
       </c>
       <c r="R15">
-        <v>2883.23363923509</v>
+        <v>2783.44586318775</v>
       </c>
       <c r="S15">
-        <v>0.05410957524411389</v>
+        <v>0.03357228559686121</v>
       </c>
       <c r="T15">
-        <v>0.05410957524411389</v>
+        <v>0.03357228559686121</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H16">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I16">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J16">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N16">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q16">
-        <v>14.33336934367122</v>
+        <v>1.573988843644444</v>
       </c>
       <c r="R16">
-        <v>129.000324093041</v>
+        <v>14.1658995928</v>
       </c>
       <c r="S16">
-        <v>0.002420945929612311</v>
+        <v>0.0001708607424903462</v>
       </c>
       <c r="T16">
-        <v>0.002420945929612311</v>
+        <v>0.0001708607424903462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H17">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I17">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J17">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N17">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q17">
-        <v>3.208969580177777</v>
+        <v>52.98732800984732</v>
       </c>
       <c r="R17">
-        <v>28.8807262216</v>
+        <v>476.8859520886259</v>
       </c>
       <c r="S17">
-        <v>0.0005420038831840565</v>
+        <v>0.005751917647255674</v>
       </c>
       <c r="T17">
-        <v>0.0005420038831840566</v>
+        <v>0.005751917647255674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H18">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I18">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J18">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>20.79327</v>
       </c>
       <c r="O18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q18">
-        <v>293.3932984606933</v>
+        <v>1623.46600853642</v>
       </c>
       <c r="R18">
-        <v>2640.53968614624</v>
+        <v>14611.19407682778</v>
       </c>
       <c r="S18">
-        <v>0.04955494375769836</v>
+        <v>0.1762316224453695</v>
       </c>
       <c r="T18">
-        <v>0.04955494375769836</v>
+        <v>0.1762316224453695</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H19">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I19">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J19">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N19">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q19">
-        <v>13.12686910735289</v>
+        <v>8.262368876437332</v>
       </c>
       <c r="R19">
-        <v>118.141821966176</v>
+        <v>74.36131988793599</v>
       </c>
       <c r="S19">
-        <v>0.00221716468556861</v>
+        <v>0.0008969024695807239</v>
       </c>
       <c r="T19">
-        <v>0.00221716468556861</v>
+        <v>0.000896902469580724</v>
       </c>
     </row>
   </sheetData>
